--- a/data/trans_orig/AIRE_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13059</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7787</v>
+        <v>7722</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21319</v>
+        <v>20661</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05214890103608646</v>
+        <v>0.05214890103608647</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03109532383193173</v>
+        <v>0.03083682142965541</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08513303179822956</v>
+        <v>0.08250499750971757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -762,19 +762,19 @@
         <v>24800</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18468</v>
+        <v>17808</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33386</v>
+        <v>32645</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0670444432382459</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04992644888185108</v>
+        <v>0.04814251455472438</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09025343125899084</v>
+        <v>0.08825011344738569</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -783,19 +783,19 @@
         <v>37860</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29036</v>
+        <v>29347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50521</v>
+        <v>48456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06103121914269053</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0468076325311977</v>
+        <v>0.04730918233692117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08144137896753267</v>
+        <v>0.07811210862796573</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>103592</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89862</v>
+        <v>88702</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>117409</v>
+        <v>118237</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4136679572548106</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3588386913131688</v>
+        <v>0.3542081099962893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4688397262804408</v>
+        <v>0.4721465058003649</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>298</v>
@@ -833,19 +833,19 @@
         <v>164066</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>150059</v>
+        <v>148588</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>178115</v>
+        <v>178676</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.443531361739937</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4056648848239491</v>
+        <v>0.4016885327123393</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4815105898890656</v>
+        <v>0.4830275150185513</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>422</v>
@@ -854,19 +854,19 @@
         <v>267659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>245358</v>
+        <v>246745</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>286830</v>
+        <v>288640</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4314757184482652</v>
+        <v>0.4314757184482651</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3955265489817338</v>
+        <v>0.397762697334932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4623808305186731</v>
+        <v>0.4652978052240103</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>63024</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51293</v>
+        <v>51618</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77132</v>
+        <v>77596</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.251668222069706</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2048243451890938</v>
+        <v>0.2061204551939692</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3080067687690568</v>
+        <v>0.3098574418634413</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>122</v>
@@ -904,19 +904,19 @@
         <v>68962</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57504</v>
+        <v>58047</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80293</v>
+        <v>81433</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1864304245496553</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.155454322123576</v>
+        <v>0.156921373393693</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2170626812066662</v>
+        <v>0.2201444862262959</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>203</v>
@@ -925,19 +925,19 @@
         <v>131986</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>115238</v>
+        <v>115645</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>149451</v>
+        <v>148978</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2127664578852971</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1857687067362134</v>
+        <v>0.1864233274572646</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2409209046583013</v>
+        <v>0.2401585997475949</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>33820</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24876</v>
+        <v>24825</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47063</v>
+        <v>45188</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1350508219128449</v>
+        <v>0.1350508219128448</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09933425985526671</v>
+        <v>0.09913221718832506</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1879322096607548</v>
+        <v>0.1804468058140541</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -975,19 +975,19 @@
         <v>58153</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48032</v>
+        <v>47903</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69972</v>
+        <v>69881</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1572098354784618</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1298475646756564</v>
+        <v>0.1294995933920473</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1891588050609979</v>
+        <v>0.1889131759725704</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>129</v>
@@ -996,19 +996,19 @@
         <v>91973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77991</v>
+        <v>78409</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109323</v>
+        <v>109063</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1482643998240827</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1257250903669968</v>
+        <v>0.1263983515709987</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1762320289746864</v>
+        <v>0.1758140713951544</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>36929</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26999</v>
+        <v>26865</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49011</v>
+        <v>48205</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1474640977265521</v>
+        <v>0.147464097726552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1078122360850182</v>
+        <v>0.1072798009235753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1957132332554435</v>
+        <v>0.1924929989359588</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>93</v>
@@ -1046,19 +1046,19 @@
         <v>53927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>43537</v>
+        <v>44323</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65350</v>
+        <v>65544</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1457839349937001</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1176975239109186</v>
+        <v>0.1198208991448406</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1766658297355606</v>
+        <v>0.1771886151785989</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>140</v>
@@ -1067,19 +1067,19 @@
         <v>90855</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>77637</v>
+        <v>76731</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>106219</v>
+        <v>105500</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1464622046996645</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1251538009520587</v>
+        <v>0.1236930229290084</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1712283405121178</v>
+        <v>0.1700700877667233</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>81085</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59470</v>
+        <v>59316</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110414</v>
+        <v>110258</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09345445949509892</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06854226535149736</v>
+        <v>0.06836534243653124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1272581517059828</v>
+        <v>0.1270778045174243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -1192,19 +1192,19 @@
         <v>70839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56399</v>
+        <v>55357</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88253</v>
+        <v>88086</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08917948123418161</v>
+        <v>0.0891794812341816</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07100132655274831</v>
+        <v>0.06968950188492674</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1111016921688302</v>
+        <v>0.1108914178593962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>137</v>
@@ -1213,19 +1213,19 @@
         <v>151924</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127016</v>
+        <v>124743</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186298</v>
+        <v>185778</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09141123541043314</v>
+        <v>0.09141123541043315</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07642423796596003</v>
+        <v>0.07505665924925983</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1120938159707589</v>
+        <v>0.1117810089650658</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>218904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>188216</v>
+        <v>191634</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>252406</v>
+        <v>248701</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2522985099198626</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2169293910357472</v>
+        <v>0.2208682528943794</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2909113701221806</v>
+        <v>0.2866410936321276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -1263,19 +1263,19 @@
         <v>241493</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>217887</v>
+        <v>217122</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>266279</v>
+        <v>267675</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3040153126161046</v>
+        <v>0.3040153126161045</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2742975904071188</v>
+        <v>0.2733348062671792</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.335218939127072</v>
+        <v>0.3369764693109772</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>516</v>
@@ -1284,19 +1284,19 @@
         <v>460397</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>423041</v>
+        <v>425483</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>499485</v>
+        <v>502131</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2770165342936743</v>
+        <v>0.2770165342936744</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.254539913983164</v>
+        <v>0.2560094033484906</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3005355301413521</v>
+        <v>0.3021278755977845</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>336504</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>305784</v>
+        <v>303729</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>369683</v>
+        <v>367821</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3878381952231423</v>
+        <v>0.3878381952231422</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3524318887076778</v>
+        <v>0.3500635186300164</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4260796325650567</v>
+        <v>0.4239330411006467</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>409</v>
@@ -1334,19 +1334,19 @@
         <v>271551</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>245512</v>
+        <v>248058</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>295560</v>
+        <v>299218</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3418562691572649</v>
+        <v>0.3418562691572648</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3090750705447682</v>
+        <v>0.3122807989220379</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3720809241096201</v>
+        <v>0.376685679256396</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>746</v>
@@ -1355,19 +1355,19 @@
         <v>608055</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>564309</v>
+        <v>568408</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>647599</v>
+        <v>645853</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.365861152753466</v>
+        <v>0.3658611527534661</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3395396002729752</v>
+        <v>0.3420058564401328</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3896544189476855</v>
+        <v>0.3886037915946653</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>142823</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120464</v>
+        <v>118331</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>167220</v>
+        <v>167313</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1646112279262218</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1388406870207593</v>
+        <v>0.1363821905747557</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1927295265464766</v>
+        <v>0.1928365642477657</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>146</v>
@@ -1405,19 +1405,19 @@
         <v>111292</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>94164</v>
+        <v>93273</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128571</v>
+        <v>129930</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1401057557947029</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1185426425443153</v>
+        <v>0.1174216966494233</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1618577128322612</v>
+        <v>0.1635691218610618</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>281</v>
@@ -1426,19 +1426,19 @@
         <v>254115</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>225795</v>
+        <v>225665</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>283868</v>
+        <v>284127</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1528988476966012</v>
+        <v>0.1528988476966013</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1358586364598588</v>
+        <v>0.1357805086898073</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1708005803189847</v>
+        <v>0.1709564478774371</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>88324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>69604</v>
+        <v>70060</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108561</v>
+        <v>109100</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1017976074356745</v>
+        <v>0.1017976074356746</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08022207832738619</v>
+        <v>0.08074754625212711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1251220833370664</v>
+        <v>0.1257438220219385</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -1476,19 +1476,19 @@
         <v>99168</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>83091</v>
+        <v>82563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>118059</v>
+        <v>119412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1248431811977461</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1046031619173504</v>
+        <v>0.1039386444106969</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1486249211626911</v>
+        <v>0.150328064971071</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>219</v>
@@ -1497,19 +1497,19 @@
         <v>187492</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>163750</v>
+        <v>162815</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>215153</v>
+        <v>215426</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1128122298458251</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09852673659478731</v>
+        <v>0.0979645821169661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1294557024400681</v>
+        <v>0.1296197083805617</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>19578</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11151</v>
+        <v>11007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30377</v>
+        <v>29798</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09673870799318557</v>
+        <v>0.09673870799318555</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0550975861452558</v>
+        <v>0.05438754383145464</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1500981319798311</v>
+        <v>0.1472405314643958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1622,19 +1622,19 @@
         <v>22816</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15307</v>
+        <v>15255</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32427</v>
+        <v>32858</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09321681031866617</v>
+        <v>0.09321681031866619</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0625375501396969</v>
+        <v>0.06232516649169861</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.132480236867525</v>
+        <v>0.1342427633018779</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -1643,19 +1643,19 @@
         <v>42394</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30719</v>
+        <v>30765</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57001</v>
+        <v>57606</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09481082845855322</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06870107200645748</v>
+        <v>0.06880378475665275</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1274773924699894</v>
+        <v>0.128832229101007</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>15413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8464</v>
+        <v>8446</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25519</v>
+        <v>24461</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07615925590930012</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04182073267810044</v>
+        <v>0.04173444254257504</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1260948171066993</v>
+        <v>0.1208690422030396</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -1693,19 +1693,19 @@
         <v>32688</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24440</v>
+        <v>23855</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45536</v>
+        <v>45350</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1335505117198232</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09984912300467956</v>
+        <v>0.0974614240067186</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1860392742525636</v>
+        <v>0.1852798230389017</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>56</v>
@@ -1714,19 +1714,19 @@
         <v>48101</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35998</v>
+        <v>36196</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62402</v>
+        <v>62003</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1075751111581484</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08050672370327788</v>
+        <v>0.08095049460102727</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1395571061782315</v>
+        <v>0.1386644507516456</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>105722</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>90864</v>
+        <v>89536</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>121937</v>
+        <v>119568</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5223971441623695</v>
+        <v>0.5223971441623694</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4489814422401639</v>
+        <v>0.4424207650555558</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6025193753379636</v>
+        <v>0.5908136915942023</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>164</v>
@@ -1764,19 +1764,19 @@
         <v>113845</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>99753</v>
+        <v>99639</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>126802</v>
+        <v>128056</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4651181491901468</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.407547453957867</v>
+        <v>0.407079161671236</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5180547217135471</v>
+        <v>0.523181032589479</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>264</v>
@@ -1785,19 +1785,19 @@
         <v>219566</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>199731</v>
+        <v>200742</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>241147</v>
+        <v>240552</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4910427402652359</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4466829926745522</v>
+        <v>0.4489425946818408</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5393070709873862</v>
+        <v>0.5379753584619363</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>34495</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23972</v>
+        <v>24293</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45968</v>
+        <v>47086</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1704481230862868</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1184523446889415</v>
+        <v>0.1200372093512806</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.227139902711262</v>
+        <v>0.2326615888143895</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -1835,19 +1835,19 @@
         <v>36350</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27510</v>
+        <v>27768</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47041</v>
+        <v>48614</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1485098189867785</v>
+        <v>0.1485098189867786</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1123949284373656</v>
+        <v>0.1134470693582173</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1921885985151341</v>
+        <v>0.1986160751815244</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -1856,19 +1856,19 @@
         <v>70845</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57012</v>
+        <v>57659</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86079</v>
+        <v>85972</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1584391405982438</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.127502146668221</v>
+        <v>0.1289502557761236</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1925097973334051</v>
+        <v>0.1922685981355513</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>27171</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18453</v>
+        <v>19113</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38924</v>
+        <v>39785</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.134256768848858</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09118239246036212</v>
+        <v>0.09444162832262329</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1923332125028688</v>
+        <v>0.196588242639685</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -1906,19 +1906,19 @@
         <v>39066</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29370</v>
+        <v>29756</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50060</v>
+        <v>50683</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1596047097845853</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1199916431872678</v>
+        <v>0.1215693799470802</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2045236291341912</v>
+        <v>0.2070669250298266</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>88</v>
@@ -1927,19 +1927,19 @@
         <v>66236</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54121</v>
+        <v>53579</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>82472</v>
+        <v>81269</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1481321795198186</v>
+        <v>0.1481321795198187</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1210374277546398</v>
+        <v>0.1198258968478782</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1844423699654409</v>
+        <v>0.1817512531799423</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>113722</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88126</v>
+        <v>90277</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>145597</v>
+        <v>148636</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08612415024954737</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06674011831705021</v>
+        <v>0.06836917102588197</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1102636214373648</v>
+        <v>0.1125652483321159</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>160</v>
@@ -2052,19 +2052,19 @@
         <v>118456</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99016</v>
+        <v>98772</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137251</v>
+        <v>140149</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08406971880323182</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07027309432446119</v>
+        <v>0.07010017191485485</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09740886300381961</v>
+        <v>0.09946546195545559</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>241</v>
@@ -2073,19 +2073,19 @@
         <v>232178</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>198411</v>
+        <v>201643</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>269413</v>
+        <v>269512</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0850635989446399</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07269248157551016</v>
+        <v>0.07387659820536109</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09870582185991204</v>
+        <v>0.09874192346348688</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>337909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>303651</v>
+        <v>304548</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>373878</v>
+        <v>378744</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2559064575796249</v>
+        <v>0.255906457579625</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2299619990539203</v>
+        <v>0.230641189681452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2831460274039895</v>
+        <v>0.2868315625996636</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>666</v>
@@ -2123,19 +2123,19 @@
         <v>438247</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>408035</v>
+        <v>408987</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>471468</v>
+        <v>470070</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3110303904264806</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2895884445624968</v>
+        <v>0.2902639881377559</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.334607436697164</v>
+        <v>0.3336151303240823</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>994</v>
@@ -2144,19 +2144,19 @@
         <v>776157</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>724245</v>
+        <v>731931</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>822233</v>
+        <v>820219</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2843628750557158</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2653437048856881</v>
+        <v>0.2681596278256644</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.301243773724636</v>
+        <v>0.3005061221330292</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>505249</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>467788</v>
+        <v>467127</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>544156</v>
+        <v>541749</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.382636550712334</v>
+        <v>0.3826365507123341</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3542663493201659</v>
+        <v>0.3537659069071624</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4121018057302738</v>
+        <v>0.4102791386068811</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>695</v>
@@ -2194,19 +2194,19 @@
         <v>454358</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>422922</v>
+        <v>426702</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>483768</v>
+        <v>486905</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3224646271083348</v>
+        <v>0.3224646271083349</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3001538980467561</v>
+        <v>0.3028364206414931</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3433371853801181</v>
+        <v>0.3455635439779489</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1213</v>
@@ -2215,19 +2215,19 @@
         <v>959607</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>913470</v>
+        <v>910823</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1007484</v>
+        <v>1008640</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3515742282330606</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3346707462101038</v>
+        <v>0.3337009155555362</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3691150476848702</v>
+        <v>0.3695383046244466</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>211138</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>184073</v>
+        <v>185954</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>241481</v>
+        <v>242388</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1598996395489611</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1394023550162535</v>
+        <v>0.1408275353688062</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1828789131896916</v>
+        <v>0.1835656782352943</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>284</v>
@@ -2265,19 +2265,19 @@
         <v>205796</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>184335</v>
+        <v>182868</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>229861</v>
+        <v>229418</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1460559783091011</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1308251772811529</v>
+        <v>0.1297837768046094</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1631356543404504</v>
+        <v>0.1628211520957844</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>492</v>
@@ -2286,19 +2286,19 @@
         <v>416934</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>381046</v>
+        <v>378390</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>455157</v>
+        <v>451561</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1527531791406757</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1396048596207925</v>
+        <v>0.1386319194398208</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1667574010262871</v>
+        <v>0.1654397923586451</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>152423</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>130729</v>
+        <v>130515</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>178276</v>
+        <v>177598</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1154332019095325</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09900379352528249</v>
+        <v>0.09884188556580299</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1350127855494042</v>
+        <v>0.1344987007100089</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>278</v>
@@ -2336,19 +2336,19 @@
         <v>192161</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>169822</v>
+        <v>170074</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>215907</v>
+        <v>214671</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1363792853528518</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1205247590724207</v>
+        <v>0.1207039183428628</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1532325785195892</v>
+        <v>0.1523552308806176</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>447</v>
@@ -2357,19 +2357,19 @@
         <v>344584</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>314066</v>
+        <v>311404</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>379632</v>
+        <v>377806</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.126246118625908</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1150652942830346</v>
+        <v>0.1140901354616952</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1390869342399167</v>
+        <v>0.1384180230341498</v>
       </c>
     </row>
     <row r="27">
